--- a/aromatase_data.xlsx
+++ b/aromatase_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="393">
   <si>
     <t>Activity_IC50_micromol</t>
   </si>
@@ -1199,6 +1199,9 @@
   <si>
     <t>p476zscl3</t>
   </si>
+  <si>
+    <t>p395zscl1</t>
+  </si>
 </sst>
 </file>
 
@@ -1780,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MM113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113:KY113"/>
+    <sheetView tabSelected="1" topLeftCell="LX1" workbookViewId="0">
+      <selection activeCell="MI1" sqref="MI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2751,7 +2754,7 @@
         <v>362</v>
       </c>
       <c r="LJ1" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="LK1" t="s">
         <v>364</v>
@@ -121008,7 +121011,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/aromatase_data.xlsx
+++ b/aromatase_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MM113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LX1" workbookViewId="0">
-      <selection activeCell="MI1" sqref="MI1"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2849,7 +2849,7 @@
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3904,7 +3904,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="B3">
-        <v>1.5686362359999999</v>
+        <v>7.5686362359999997</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4959,7 +4959,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="B4">
-        <v>1.27572413</v>
+        <v>7.2757241300000004</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -6014,7 +6014,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="B5">
-        <v>1.2441251440000001</v>
+        <v>7.2441251439999998</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -7069,7 +7069,7 @@
         <v>0.06</v>
       </c>
       <c r="B6">
-        <v>1.2218487499999999</v>
+        <v>7.2218487500000004</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -8124,7 +8124,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="B7">
-        <v>1.173925197</v>
+        <v>7.173925197</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -9179,7 +9179,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="B8">
-        <v>1.1079053969999999</v>
+        <v>7.1079053969999997</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -10234,7 +10234,7 @@
         <v>0.104</v>
       </c>
       <c r="B9">
-        <v>0.98296666099999996</v>
+        <v>6.9829666609999999</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -11289,7 +11289,7 @@
         <v>0.111</v>
       </c>
       <c r="B10">
-        <v>0.95467702099999996</v>
+        <v>6.9546770210000002</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -12344,7 +12344,7 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="B11">
-        <v>0.87289520200000004</v>
+        <v>6.8728952019999996</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -13399,7 +13399,7 @@
         <v>0.158</v>
       </c>
       <c r="B12">
-        <v>0.80134291300000005</v>
+        <v>6.801342913</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -14454,7 +14454,7 @@
         <v>0.2</v>
       </c>
       <c r="B13">
-        <v>0.69897000399999998</v>
+        <v>6.6989700040000004</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -15509,7 +15509,7 @@
         <v>0.06</v>
       </c>
       <c r="B14">
-        <v>1.2218487499999999</v>
+        <v>7.2218487500000004</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -16564,7 +16564,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="B15">
-        <v>0.99139982800000004</v>
+        <v>6.9913998279999996</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -17619,7 +17619,7 @@
         <v>0.114</v>
       </c>
       <c r="B16">
-        <v>0.94309514900000002</v>
+        <v>6.9430951490000004</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -18674,7 +18674,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="B17">
-        <v>0.83863199799999999</v>
+        <v>6.8386319980000003</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -19729,7 +19729,7 @@
         <v>0.157</v>
       </c>
       <c r="B18">
-        <v>0.80410034799999996</v>
+        <v>6.8041003480000004</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -20784,7 +20784,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="B19">
-        <v>0.77211329500000003</v>
+        <v>6.7721132949999996</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -21839,7 +21839,7 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="B20">
-        <v>0.69680394300000004</v>
+        <v>6.6968039429999999</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -22894,7 +22894,7 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="B21">
-        <v>0.67571754500000003</v>
+        <v>6.6757175450000004</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -23949,7 +23949,7 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="B22">
-        <v>0.64016451799999996</v>
+        <v>6.6401645179999997</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -25004,7 +25004,7 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="B23">
-        <v>0.59006687700000005</v>
+        <v>6.5900668769999999</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -26059,7 +26059,7 @@
         <v>0.27</v>
       </c>
       <c r="B24">
-        <v>0.56863623600000002</v>
+        <v>6.5686362359999997</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -27114,7 +27114,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="B25">
-        <v>0.55752023100000003</v>
+        <v>6.5575202309999998</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -28169,7 +28169,7 @@
         <v>0.67</v>
       </c>
       <c r="B26">
-        <v>0.173925197</v>
+        <v>6.173925197</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -29224,7 +29224,7 @@
         <v>0.73</v>
       </c>
       <c r="B27">
-        <v>0.13667714</v>
+        <v>6.1366771399999998</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -30279,7 +30279,7 @@
         <v>0.73</v>
       </c>
       <c r="B28">
-        <v>0.13667714</v>
+        <v>6.1366771399999998</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -31334,7 +31334,7 @@
         <v>0.86</v>
       </c>
       <c r="B29">
-        <v>6.5501549000000006E-2</v>
+        <v>6.0655015490000004</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -32389,7 +32389,7 @@
         <v>1.7</v>
       </c>
       <c r="B30">
-        <v>-0.230448921</v>
+        <v>5.7695510790000002</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -33444,7 +33444,7 @@
         <v>1.7</v>
       </c>
       <c r="B31">
-        <v>-0.230448921</v>
+        <v>5.7695510790000002</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -34499,7 +34499,7 @@
         <v>2.5</v>
       </c>
       <c r="B32">
-        <v>-0.39794000899999998</v>
+        <v>5.602059991</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -35554,7 +35554,7 @@
         <v>3.2</v>
       </c>
       <c r="B33">
-        <v>-0.50514997800000006</v>
+        <v>5.4948500219999996</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
@@ -36609,7 +36609,7 @@
         <v>4.8</v>
       </c>
       <c r="B34">
-        <v>-0.68124123700000005</v>
+        <v>5.3187587629999999</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -37664,7 +37664,7 @@
         <v>5.3</v>
       </c>
       <c r="B35">
-        <v>-0.72427587000000004</v>
+        <v>5.2757241300000004</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -38719,7 +38719,7 @@
         <v>5.5</v>
       </c>
       <c r="B36">
-        <v>-0.74036268900000002</v>
+        <v>5.2596373109999996</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -39774,7 +39774,7 @@
         <v>7.4</v>
       </c>
       <c r="B37">
-        <v>-0.86923172000000004</v>
+        <v>5.1307682799999998</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -40829,7 +40829,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="B38">
-        <v>3.397940009</v>
+        <v>9.3979400089999992</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -41884,7 +41884,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="B39">
-        <v>3.397940009</v>
+        <v>9.3979400089999992</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -42939,7 +42939,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="B40">
-        <v>3.397940009</v>
+        <v>9.3979400089999992</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -43994,7 +43994,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="B41">
-        <v>3.0457574909999998</v>
+        <v>9.0457574909999998</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -45049,7 +45049,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="B42">
-        <v>3.0457574909999998</v>
+        <v>9.0457574909999998</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -46104,7 +46104,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="B43">
-        <v>2.8860566479999998</v>
+        <v>8.8860566480000003</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -47159,7 +47159,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="B44">
-        <v>2.8538719640000001</v>
+        <v>8.8538719639999997</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -48214,7 +48214,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="B45">
-        <v>2.8239087409999999</v>
+        <v>8.8239087410000003</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -49269,7 +49269,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="B46">
-        <v>2.795880017</v>
+        <v>8.795880017</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -50324,7 +50324,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="B47">
-        <v>2.7447274949999998</v>
+        <v>8.7447274949999994</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -51379,7 +51379,7 @@
         <v>1.9E-3</v>
       </c>
       <c r="B48">
-        <v>2.721246399</v>
+        <v>8.721246399</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -52434,7 +52434,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B49">
-        <v>2.096910013</v>
+        <v>8.0969100130000005</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -53489,7 +53489,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B50">
-        <v>2.2218487499999999</v>
+        <v>8.2218487499999995</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -54544,7 +54544,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B51">
-        <v>2.096910013</v>
+        <v>8.0969100130000005</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -55599,7 +55599,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B52">
-        <v>2.096910013</v>
+        <v>8.0969100130000005</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -56654,7 +56654,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B53">
-        <v>2.096910013</v>
+        <v>8.0969100130000005</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -57709,7 +57709,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B54">
-        <v>1.8239087409999999</v>
+        <v>7.8239087410000003</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -58764,7 +58764,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B55">
-        <v>1.744727495</v>
+        <v>7.7447274950000002</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -59819,7 +59819,7 @@
         <v>0.02</v>
       </c>
       <c r="B56">
-        <v>1.698970004</v>
+        <v>7.6989700040000004</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -60874,7 +60874,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="B57">
-        <v>1.5686362359999999</v>
+        <v>7.5686362359999997</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -61929,7 +61929,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="B58">
-        <v>1.4317982760000001</v>
+        <v>7.4317982760000003</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -62984,7 +62984,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="B59">
-        <v>1.4317982760000001</v>
+        <v>7.4317982760000003</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -64039,7 +64039,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="B60">
-        <v>1.27572413</v>
+        <v>7.2757241300000004</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -65094,7 +65094,7 @@
         <v>0.2</v>
       </c>
       <c r="B61">
-        <v>0.69897000399999998</v>
+        <v>6.6989700040000004</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -66149,7 +66149,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B62">
-        <v>1.9586073150000001</v>
+        <v>7.9586073150000001</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -67204,7 +67204,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="B63">
-        <v>1.9208187539999999</v>
+        <v>7.9208187539999999</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -68259,7 +68259,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B64">
-        <v>1.8860566480000001</v>
+        <v>7.8860566480000003</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -69314,7 +69314,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="B65">
-        <v>1.795880017</v>
+        <v>7.795880017</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -70369,7 +70369,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="B66">
-        <v>1.795880017</v>
+        <v>7.795880017</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -71424,7 +71424,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="B67">
-        <v>1.795880017</v>
+        <v>7.795880017</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -72479,7 +72479,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="B68">
-        <v>1.795880017</v>
+        <v>7.795880017</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -73534,7 +73534,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B69">
-        <v>1.744727495</v>
+        <v>7.7447274950000002</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -74589,7 +74589,7 @@
         <v>0.02</v>
       </c>
       <c r="B70">
-        <v>1.698970004</v>
+        <v>7.6989700040000004</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -75644,7 +75644,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="B71">
-        <v>1.657577319</v>
+        <v>7.6575773189999996</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -76699,7 +76699,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="B72">
-        <v>1.4559319559999999</v>
+        <v>7.4559319559999997</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -77754,7 +77754,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="B73">
-        <v>1.337242168</v>
+        <v>7.3372421680000004</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -78809,7 +78809,7 @@
         <v>0.33</v>
       </c>
       <c r="B74">
-        <v>0.48148605999999999</v>
+        <v>6.4814860599999999</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -79864,7 +79864,7 @@
         <v>0.45</v>
       </c>
       <c r="B75">
-        <v>0.34678748599999998</v>
+        <v>6.3467874860000002</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -80919,7 +80919,7 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.13076827999999999</v>
+        <v>6.1307682799999998</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -81974,7 +81974,7 @@
         <v>0.92</v>
       </c>
       <c r="B77">
-        <v>3.6212173E-2</v>
+        <v>6.036212173</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -83029,7 +83029,7 @@
         <v>3.93</v>
       </c>
       <c r="B78">
-        <v>-0.59439255000000002</v>
+        <v>5.4056074499999998</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -84084,7 +84084,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="B79">
-        <v>-0.63042787499999997</v>
+        <v>5.3695721250000004</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -85139,7 +85139,7 @@
         <v>5.35</v>
       </c>
       <c r="B80">
-        <v>-0.72835378200000001</v>
+        <v>5.2716462179999999</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -86194,7 +86194,7 @@
         <v>5.6</v>
       </c>
       <c r="B81">
-        <v>-0.74818802699999998</v>
+        <v>5.2518119729999997</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -87249,7 +87249,7 @@
         <v>5.72</v>
       </c>
       <c r="B82">
-        <v>-0.75739602900000003</v>
+        <v>5.2426039710000003</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -88304,7 +88304,7 @@
         <v>6.21</v>
       </c>
       <c r="B83">
-        <v>-0.79309160000000001</v>
+        <v>5.2069083999999997</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -89359,7 +89359,7 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -90414,7 +90414,7 @@
         <v>0.1</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -91469,7 +91469,7 @@
         <v>0.15</v>
       </c>
       <c r="B86">
-        <v>0.823908741</v>
+        <v>6.8239087410000003</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -92524,7 +92524,7 @@
         <v>0.15</v>
       </c>
       <c r="B87">
-        <v>0.823908741</v>
+        <v>6.8239087410000003</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -93579,7 +93579,7 @@
         <v>0.17</v>
       </c>
       <c r="B88">
-        <v>0.76955107899999997</v>
+        <v>6.7695510790000002</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -94634,7 +94634,7 @@
         <v>0.2</v>
       </c>
       <c r="B89">
-        <v>0.69897000399999998</v>
+        <v>6.6989700040000004</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -95689,7 +95689,7 @@
         <v>0.23</v>
       </c>
       <c r="B90">
-        <v>0.63827216399999998</v>
+        <v>6.638272164</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -96744,7 +96744,7 @@
         <v>0.33</v>
       </c>
       <c r="B91">
-        <v>0.48148605999999999</v>
+        <v>6.4814860599999999</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -97799,7 +97799,7 @@
         <v>0.53</v>
       </c>
       <c r="B92">
-        <v>0.27572413000000001</v>
+        <v>6.2757241300000004</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -98854,7 +98854,7 @@
         <v>0.94</v>
       </c>
       <c r="B93">
-        <v>2.6872146E-2</v>
+        <v>6.0268721459999997</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -99909,7 +99909,7 @@
         <v>1.55</v>
       </c>
       <c r="B94">
-        <v>-0.19033169799999999</v>
+        <v>5.8096683020000004</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -100964,7 +100964,7 @@
         <v>2.8</v>
       </c>
       <c r="B95">
-        <v>-0.44715803100000001</v>
+        <v>5.5528419690000002</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -102019,7 +102019,7 @@
         <v>0.23</v>
       </c>
       <c r="B96">
-        <v>0.63827216399999998</v>
+        <v>6.638272164</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -103074,7 +103074,7 @@
         <v>0.92</v>
       </c>
       <c r="B97">
-        <v>3.6212173E-2</v>
+        <v>6.036212173</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -104129,7 +104129,7 @@
         <v>2.02</v>
       </c>
       <c r="B98">
-        <v>-0.30535136899999998</v>
+        <v>5.6946486309999997</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -105184,7 +105184,7 @@
         <v>3.76</v>
       </c>
       <c r="B99">
-        <v>-0.57518784499999998</v>
+        <v>5.4248121549999997</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -106239,7 +106239,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B100">
-        <v>-0.643452676</v>
+        <v>5.3565473240000001</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -107294,7 +107294,7 @@
         <v>4.68</v>
       </c>
       <c r="B101">
-        <v>-0.67024585299999995</v>
+        <v>5.3297541470000001</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -108349,7 +108349,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B102">
-        <v>-0.99122607600000001</v>
+        <v>5.0087739239999998</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -109404,7 +109404,7 @@
         <v>10</v>
       </c>
       <c r="B103">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -110459,7 +110459,7 @@
         <v>10</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -111514,7 +111514,7 @@
         <v>10</v>
       </c>
       <c r="B105">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -112569,7 +112569,7 @@
         <v>10.83</v>
       </c>
       <c r="B106">
-        <v>-1.0346284569999999</v>
+        <v>4.9653715429999998</v>
       </c>
       <c r="C106" t="s">
         <v>9</v>
@@ -113624,7 +113624,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="B107">
-        <v>3.698970004</v>
+        <v>9.6989700039999995</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -114679,7 +114679,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B108">
-        <v>3.301029996</v>
+        <v>9.3010299960000005</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -115734,7 +115734,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B109">
-        <v>3.301029996</v>
+        <v>9.3010299960000005</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -116789,7 +116789,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="B110">
-        <v>3.096910013</v>
+        <v>9.0969100130000005</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
@@ -117844,7 +117844,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="B111">
-        <v>3.0457574909999998</v>
+        <v>9.0457574909999998</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -118899,7 +118899,7 @@
         <v>1E-3</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -119954,7 +119954,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="B113">
-        <v>2.3187587629999999</v>
+        <v>8.3187587629999999</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
